--- a/test-artifacts/media-reports/validated-media.xlsx
+++ b/test-artifacts/media-reports/validated-media.xlsx
@@ -427,13 +427,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>3-2</v>
+        <v>2-1</v>
       </c>
       <c r="B2" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/journals-and-reflections/</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/boiling-flasks-round-bottom/</v>
       </c>
       <c r="C2" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/journals-and-reflections/</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/boiling-flasks-round-bottom/</v>
       </c>
       <c r="D2" t="str">
         <v>ok</v>
@@ -447,13 +447,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>3-1</v>
+        <v>2-2</v>
       </c>
       <c r="B3" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/boiling-flasks-round-bottom/</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/journals-and-reflections/</v>
       </c>
       <c r="C3" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/boiling-flasks-round-bottom/</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/journals-and-reflections/</v>
       </c>
       <c r="D3" t="str">
         <v>ok</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>3-2</v>
+        <v>2-2</v>
       </c>
       <c r="B4" t="str">
         <v>http://drupal-geneseo-backup.ddev.site/basic_page/conh35clcl2-prep/</v>
@@ -487,19 +487,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>3-1</v>
+        <v>2-1</v>
       </c>
       <c r="B5" t="str">
         <v>http://drupal-geneseo-backup.ddev.site/academics</v>
       </c>
-      <c r="C5" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/academics</v>
-      </c>
       <c r="D5" t="str">
         <v>ok</v>
       </c>
       <c r="E5">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -507,7 +504,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>3-1</v>
+        <v>2-1</v>
       </c>
       <c r="B6" t="str">
         <v>http://drupal-geneseo-backup.ddev.site/basic_page/mofs-part-3/</v>

--- a/test-artifacts/media-reports/validated-media.xlsx
+++ b/test-artifacts/media-reports/validated-media.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,124 +407,604 @@
         <v>browserId</v>
       </c>
       <c r="B1" t="str">
-        <v>originalUrl</v>
+        <v>parentPage</v>
       </c>
       <c r="C1" t="str">
-        <v>finalUrl</v>
+        <v>fullMediaUrl</v>
       </c>
       <c r="D1" t="str">
+        <v>type</v>
+      </c>
+      <c r="E1" t="str">
+        <v>src</v>
+      </c>
+      <c r="F1" t="str">
         <v>status</v>
-      </c>
-      <c r="E1" t="str">
-        <v>mediaCount</v>
-      </c>
-      <c r="F1" t="str">
-        <v>brokenCount</v>
-      </c>
-      <c r="G1" t="str">
-        <v>error</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2-1</v>
+        <v>B1-C1-T3</v>
       </c>
       <c r="B2" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/boiling-flasks-round-bottom/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics/early-acceptance-dental-andor-osteopathic-medicine-programs</v>
       </c>
       <c r="C2" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/boiling-flasks-round-bottom/</v>
+        <v>data:image/svg+xml;base64,PHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIGhlaWdodD0iMjRweCIgdmlld0JveD0iMCAtOTYwIDk2MCA5NjAiIHdpZHRoPSIyNHB4IiBmaWxsPSIjNWY2MzY4Ij48cGF0aCBkPSJNNDgwLTE2MHEtMTMzIDAtMjI2LjUtOTMuNVQxNjAtNDgwcTAtMTMzIDkzLjUtMjI2LjVUNDgwLTgwMHE4NSAwIDE0OSAzNC41VDc0MC02NzF2LTEyOWg2MHYyNTRINTQ2di02MGgxNjhxLTM4LTYwLTk3LTk3dC0xMzctMzdxLTEwOSAwLTE4NC41IDc1LjVUMjIwLTQ4MHEwIDEwOSA3NS41IDE4NC41VDQ4MC0yMjBxODMgMCAxNTItNDcuNVQ3MjgtMzkzaDYycS0yOSAxMDUtMTE1IDE2OXQtMTk1IDY0WiIvPjwvc3ZnPg==</v>
       </c>
       <c r="D2" t="str">
-        <v>ok</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
+        <v>image</v>
+      </c>
+      <c r="E2" t="str">
+        <v>data:image/svg+xml;base64,PHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIGhlaWdodD0iMjRweCIgdmlld0JveD0iMCAtOTYwIDk2MCA5NjAiIHdpZHRoPSIyNHB4IiBmaWxsPSIjNWY2MzY4Ij48cGF0aCBkPSJNNDgwLTE2MHEtMTMzIDAtMjI2LjUtOTMuNVQxNjAtNDgwcTAtMTMzIDkzLjUtMjI2LjVUNDgwLTgwMHE4NSAwIDE0OSAzNC41VDc0MC02NzF2LTEyOWg2MHYyNTRINTQ2di02MGgxNjhxLTM4LTYwLTk3LTk3dC0xMzctMzdxLTEwOSAwLTE4NC41IDc1LjVUMjIwLTQ4MHEwIDEwOSA3NS41IDE4NC41VDQ4MC0yMjBxODMgMCAxNTItNDcuNVQ3MjgtMzkzaDYycS0yOSAxMDUtMTE1IDE2OXQtMTk1IDY0WiIvPjwvc3ZnPg==</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2-2</v>
+        <v>B1-C1-T3</v>
       </c>
       <c r="B3" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/journals-and-reflections/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics/early-acceptance-dental-andor-osteopathic-medicine-programs</v>
       </c>
       <c r="C3" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/journals-and-reflections/</v>
+        <v>https://secure.gravatar.com/avatar/8fa90a9f22e056e212f0160ca5c3296557c65c81c155924e1fbafa5fab7dce7a?s=26&amp;d=mm&amp;r=g</v>
       </c>
       <c r="D3" t="str">
-        <v>ok</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
+        <v>image</v>
+      </c>
+      <c r="E3" t="str">
+        <v>https://secure.gravatar.com/avatar/8fa90a9f22e056e212f0160ca5c3296557c65c81c155924e1fbafa5fab7dce7a?s=26&amp;d=mm&amp;r=g</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2-2</v>
+        <v>B1-C1-T3</v>
       </c>
       <c r="B4" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/conh35clcl2-prep/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics/early-acceptance-dental-andor-osteopathic-medicine-programs</v>
       </c>
       <c r="C4" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/conh35clcl2-prep/</v>
+        <v>data:image/svg+xml;base64,PHN2ZyB3aWR0aD0iMSIgaGVpZ2h0PSIxIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciPjwvc3ZnPg==</v>
       </c>
       <c r="D4" t="str">
-        <v>ok</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
+        <v>image</v>
+      </c>
+      <c r="E4" t="str">
+        <v>data:image/svg+xml;base64,PHN2ZyB3aWR0aD0iMSIgaGVpZ2h0PSIxIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciPjwvc3ZnPg==</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2-1</v>
+        <v>B1-C1-T3</v>
       </c>
       <c r="B5" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/academics</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics/early-acceptance-dental-andor-osteopathic-medicine-programs</v>
+      </c>
+      <c r="C5" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2025/10/geneseo-logo.svg</v>
       </c>
       <c r="D5" t="str">
-        <v>ok</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>image</v>
+      </c>
+      <c r="E5" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2025/10/geneseo-logo.svg</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2-1</v>
+        <v>B1-C1-T3</v>
       </c>
       <c r="B6" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/mofs-part-3/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics/early-acceptance-dental-andor-osteopathic-medicine-programs</v>
       </c>
       <c r="C6" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/mofs-part-3/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/09/geneseo-logo.svg</v>
       </c>
       <c r="D6" t="str">
-        <v>ok</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
+        <v>image</v>
+      </c>
+      <c r="E6" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/09/geneseo-logo.svg</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>B1-C2-T2</v>
+      </c>
+      <c r="B7" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/aac/forms-and-documents</v>
+      </c>
+      <c r="C7" t="str">
+        <v>data:image/svg+xml;base64,PHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIGhlaWdodD0iMjRweCIgdmlld0JveD0iMCAtOTYwIDk2MCA5NjAiIHdpZHRoPSIyNHB4IiBmaWxsPSIjNWY2MzY4Ij48cGF0aCBkPSJNNDgwLTE2MHEtMTMzIDAtMjI2LjUtOTMuNVQxNjAtNDgwcTAtMTMzIDkzLjUtMjI2LjVUNDgwLTgwMHE4NSAwIDE0OSAzNC41VDc0MC02NzF2LTEyOWg2MHYyNTRINTQ2di02MGgxNjhxLTM4LTYwLTk3LTk3dC0xMzctMzdxLTEwOSAwLTE4NC41IDc1LjVUMjIwLTQ4MHEwIDEwOSA3NS41IDE4NC41VDQ4MC0yMjBxODMgMCAxNTItNDcuNVQ3MjgtMzkzaDYycS0yOSAxMDUtMTE1IDE2OXQtMTk1IDY0WiIvPjwvc3ZnPg==</v>
+      </c>
+      <c r="D7" t="str">
+        <v>image</v>
+      </c>
+      <c r="E7" t="str">
+        <v>data:image/svg+xml;base64,PHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIGhlaWdodD0iMjRweCIgdmlld0JveD0iMCAtOTYwIDk2MCA5NjAiIHdpZHRoPSIyNHB4IiBmaWxsPSIjNWY2MzY4Ij48cGF0aCBkPSJNNDgwLTE2MHEtMTMzIDAtMjI2LjUtOTMuNVQxNjAtNDgwcTAtMTMzIDkzLjUtMjI2LjVUNDgwLTgwMHE4NSAwIDE0OSAzNC41VDc0MC02NzF2LTEyOWg2MHYyNTRINTQ2di02MGgxNjhxLTM4LTYwLTk3LTk3dC0xMzctMzdxLTEwOSAwLTE4NC41IDc1LjVUMjIwLTQ4MHEwIDEwOSA3NS41IDE4NC41VDQ4MC0yMjBxODMgMCAxNTItNDcuNVQ3MjgtMzkzaDYycS0yOSAxMDUtMTE1IDE2OXQtMTk1IDY0WiIvPjwvc3ZnPg==</v>
+      </c>
+      <c r="F7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>B1-C2-T2</v>
+      </c>
+      <c r="B8" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/aac/forms-and-documents</v>
+      </c>
+      <c r="C8" t="str">
+        <v>https://secure.gravatar.com/avatar/8fa90a9f22e056e212f0160ca5c3296557c65c81c155924e1fbafa5fab7dce7a?s=26&amp;d=mm&amp;r=g</v>
+      </c>
+      <c r="D8" t="str">
+        <v>image</v>
+      </c>
+      <c r="E8" t="str">
+        <v>https://secure.gravatar.com/avatar/8fa90a9f22e056e212f0160ca5c3296557c65c81c155924e1fbafa5fab7dce7a?s=26&amp;d=mm&amp;r=g</v>
+      </c>
+      <c r="F8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>B1-C2-T2</v>
+      </c>
+      <c r="B9" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/aac/forms-and-documents</v>
+      </c>
+      <c r="C9" t="str">
+        <v>data:image/svg+xml;base64,PHN2ZyB3aWR0aD0iMSIgaGVpZ2h0PSIxIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciPjwvc3ZnPg==</v>
+      </c>
+      <c r="D9" t="str">
+        <v>image</v>
+      </c>
+      <c r="E9" t="str">
+        <v>data:image/svg+xml;base64,PHN2ZyB3aWR0aD0iMSIgaGVpZ2h0PSIxIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciPjwvc3ZnPg==</v>
+      </c>
+      <c r="F9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>B1-C2-T2</v>
+      </c>
+      <c r="B10" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/aac/forms-and-documents</v>
+      </c>
+      <c r="C10" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2025/10/geneseo-logo.svg</v>
+      </c>
+      <c r="D10" t="str">
+        <v>image</v>
+      </c>
+      <c r="E10" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2025/10/geneseo-logo.svg</v>
+      </c>
+      <c r="F10">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>B1-C2-T2</v>
+      </c>
+      <c r="B11" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/aac/forms-and-documents</v>
+      </c>
+      <c r="C11" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2016/09/AAC-Logo-2017-1-2.jpg</v>
+      </c>
+      <c r="D11" t="str">
+        <v>image</v>
+      </c>
+      <c r="E11" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2016/09/AAC-Logo-2017-1-2.jpg</v>
+      </c>
+      <c r="F11">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>B1-C2-T2</v>
+      </c>
+      <c r="B12" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/aac/forms-and-documents</v>
+      </c>
+      <c r="C12" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2017/09/SALogo.jpg</v>
+      </c>
+      <c r="D12" t="str">
+        <v>image</v>
+      </c>
+      <c r="E12" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2017/09/SALogo.jpg</v>
+      </c>
+      <c r="F12">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>B1-C2-T2</v>
+      </c>
+      <c r="B13" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/aac/forms-and-documents</v>
+      </c>
+      <c r="C13" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/09/geneseo-logo.svg</v>
+      </c>
+      <c r="D13" t="str">
+        <v>image</v>
+      </c>
+      <c r="E13" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/09/geneseo-logo.svg</v>
+      </c>
+      <c r="F13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>B1-C2-T2</v>
+      </c>
+      <c r="B14" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/aac/forms-and-documents</v>
+      </c>
+      <c r="C14" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2016/09/AAC-by-laws-2016.docx</v>
+      </c>
+      <c r="D14" t="str">
+        <v>docx</v>
+      </c>
+      <c r="E14" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2016/09/AAC-by-laws-2016.docx</v>
+      </c>
+      <c r="F14">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>B1-C2-T2</v>
+      </c>
+      <c r="B15" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/aac/forms-and-documents</v>
+      </c>
+      <c r="C15" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/sites/default/files/users/1120/Continuing%20Recognition%20Form.pdf</v>
+      </c>
+      <c r="D15" t="str">
+        <v>pdf</v>
+      </c>
+      <c r="E15" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/sites/default/files/users/1120/Continuing%20Recognition%20Form.pdf</v>
+      </c>
+      <c r="F15">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>B1-C2-T2</v>
+      </c>
+      <c r="B16" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/aac/forms-and-documents</v>
+      </c>
+      <c r="C16" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2016/09/AAC_ConferenceREQUEST-Form.pdf.docx</v>
+      </c>
+      <c r="D16" t="str">
+        <v>docx</v>
+      </c>
+      <c r="E16" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2016/09/AAC_ConferenceREQUEST-Form.pdf.docx</v>
+      </c>
+      <c r="F16">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>B1-C2-T2</v>
+      </c>
+      <c r="B17" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/aac/forms-and-documents</v>
+      </c>
+      <c r="C17" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2016/09/AAC_SocialAcademicFunctionRequestForm-1.docx</v>
+      </c>
+      <c r="D17" t="str">
+        <v>docx</v>
+      </c>
+      <c r="E17" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2016/09/AAC_SocialAcademicFunctionRequestForm-1.docx</v>
+      </c>
+      <c r="F17">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>B1-C2-T2</v>
+      </c>
+      <c r="B18" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/aac/forms-and-documents</v>
+      </c>
+      <c r="C18" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2016/09/AAC_Off-CampusTrip-Form.docx</v>
+      </c>
+      <c r="D18" t="str">
+        <v>docx</v>
+      </c>
+      <c r="E18" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2016/09/AAC_Off-CampusTrip-Form.docx</v>
+      </c>
+      <c r="F18">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>B1-C2-T2</v>
+      </c>
+      <c r="B19" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/aac/forms-and-documents</v>
+      </c>
+      <c r="C19" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2016/09/AAC_PeerAdvisementProgram.docx</v>
+      </c>
+      <c r="D19" t="str">
+        <v>docx</v>
+      </c>
+      <c r="E19" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2016/09/AAC_PeerAdvisementProgram.docx</v>
+      </c>
+      <c r="F19">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>B1-C2-T2</v>
+      </c>
+      <c r="B20" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/aac/forms-and-documents</v>
+      </c>
+      <c r="C20" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2016/09/AAC_RemovalofSuspendedFinancialStandingReading.docx</v>
+      </c>
+      <c r="D20" t="str">
+        <v>docx</v>
+      </c>
+      <c r="E20" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2016/09/AAC_RemovalofSuspendedFinancialStandingReading.docx</v>
+      </c>
+      <c r="F20">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>B1-C2-T3</v>
+      </c>
+      <c r="B21" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler</v>
+      </c>
+      <c r="C21" t="str">
+        <v>data:image/svg+xml;base64,PHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIGhlaWdodD0iMjRweCIgdmlld0JveD0iMCAtOTYwIDk2MCA5NjAiIHdpZHRoPSIyNHB4IiBmaWxsPSIjNWY2MzY4Ij48cGF0aCBkPSJNNDgwLTE2MHEtMTMzIDAtMjI2LjUtOTMuNVQxNjAtNDgwcTAtMTMzIDkzLjUtMjI2LjVUNDgwLTgwMHE4NSAwIDE0OSAzNC41VDc0MC02NzF2LTEyOWg2MHYyNTRINTQ2di02MGgxNjhxLTM4LTYwLTk3LTk3dC0xMzctMzdxLTEwOSAwLTE4NC41IDc1LjVUMjIwLTQ4MHEwIDEwOSA3NS41IDE4NC41VDQ4MC0yMjBxODMgMCAxNTItNDcuNVQ3MjgtMzkzaDYycS0yOSAxMDUtMTE1IDE2OXQtMTk1IDY0WiIvPjwvc3ZnPg==</v>
+      </c>
+      <c r="D21" t="str">
+        <v>image</v>
+      </c>
+      <c r="E21" t="str">
+        <v>data:image/svg+xml;base64,PHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIGhlaWdodD0iMjRweCIgdmlld0JveD0iMCAtOTYwIDk2MCA5NjAiIHdpZHRoPSIyNHB4IiBmaWxsPSIjNWY2MzY4Ij48cGF0aCBkPSJNNDgwLTE2MHEtMTMzIDAtMjI2LjUtOTMuNVQxNjAtNDgwcTAtMTMzIDkzLjUtMjI2LjVUNDgwLTgwMHE4NSAwIDE0OSAzNC41VDc0MC02NzF2LTEyOWg2MHYyNTRINTQ2di02MGgxNjhxLTM4LTYwLTk3LTk3dC0xMzctMzdxLTEwOSAwLTE4NC41IDc1LjVUMjIwLTQ4MHEwIDEwOSA3NS41IDE4NC41VDQ4MC0yMjBxODMgMCAxNTItNDcuNVQ3MjgtMzkzaDYycS0yOSAxMDUtMTE1IDE2OXQtMTk1IDY0WiIvPjwvc3ZnPg==</v>
+      </c>
+      <c r="F21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>B1-C2-T3</v>
+      </c>
+      <c r="B22" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler</v>
+      </c>
+      <c r="C22" t="str">
+        <v>https://secure.gravatar.com/avatar/8fa90a9f22e056e212f0160ca5c3296557c65c81c155924e1fbafa5fab7dce7a?s=26&amp;d=mm&amp;r=g</v>
+      </c>
+      <c r="D22" t="str">
+        <v>image</v>
+      </c>
+      <c r="E22" t="str">
+        <v>https://secure.gravatar.com/avatar/8fa90a9f22e056e212f0160ca5c3296557c65c81c155924e1fbafa5fab7dce7a?s=26&amp;d=mm&amp;r=g</v>
+      </c>
+      <c r="F22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>B1-C2-T3</v>
+      </c>
+      <c r="B23" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler</v>
+      </c>
+      <c r="C23" t="str">
+        <v>data:image/svg+xml;base64,PHN2ZyB3aWR0aD0iMSIgaGVpZ2h0PSIxIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciPjwvc3ZnPg==</v>
+      </c>
+      <c r="D23" t="str">
+        <v>image</v>
+      </c>
+      <c r="E23" t="str">
+        <v>data:image/svg+xml;base64,PHN2ZyB3aWR0aD0iMSIgaGVpZ2h0PSIxIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciPjwvc3ZnPg==</v>
+      </c>
+      <c r="F23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>B1-C2-T3</v>
+      </c>
+      <c r="B24" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler</v>
+      </c>
+      <c r="C24" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2025/10/geneseo-logo.svg</v>
+      </c>
+      <c r="D24" t="str">
+        <v>image</v>
+      </c>
+      <c r="E24" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2025/10/geneseo-logo.svg</v>
+      </c>
+      <c r="F24">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>B1-C2-T3</v>
+      </c>
+      <c r="B25" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler</v>
+      </c>
+      <c r="C25" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/09/geneseo-logo.svg</v>
+      </c>
+      <c r="D25" t="str">
+        <v>image</v>
+      </c>
+      <c r="E25" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/09/geneseo-logo.svg</v>
+      </c>
+      <c r="F25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>B1-C2-T1</v>
+      </c>
+      <c r="B26" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics/accelerated-masters-history-or-cultural-studies</v>
+      </c>
+      <c r="C26" t="str">
+        <v>data:image/svg+xml;base64,PHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIGhlaWdodD0iMjRweCIgdmlld0JveD0iMCAtOTYwIDk2MCA5NjAiIHdpZHRoPSIyNHB4IiBmaWxsPSIjNWY2MzY4Ij48cGF0aCBkPSJNNDgwLTE2MHEtMTMzIDAtMjI2LjUtOTMuNVQxNjAtNDgwcTAtMTMzIDkzLjUtMjI2LjVUNDgwLTgwMHE4NSAwIDE0OSAzNC41VDc0MC02NzF2LTEyOWg2MHYyNTRINTQ2di02MGgxNjhxLTM4LTYwLTk3LTk3dC0xMzctMzdxLTEwOSAwLTE4NC41IDc1LjVUMjIwLTQ4MHEwIDEwOSA3NS41IDE4NC41VDQ4MC0yMjBxODMgMCAxNTItNDcuNVQ3MjgtMzkzaDYycS0yOSAxMDUtMTE1IDE2OXQtMTk1IDY0WiIvPjwvc3ZnPg==</v>
+      </c>
+      <c r="D26" t="str">
+        <v>image</v>
+      </c>
+      <c r="E26" t="str">
+        <v>data:image/svg+xml;base64,PHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIGhlaWdodD0iMjRweCIgdmlld0JveD0iMCAtOTYwIDk2MCA5NjAiIHdpZHRoPSIyNHB4IiBmaWxsPSIjNWY2MzY4Ij48cGF0aCBkPSJNNDgwLTE2MHEtMTMzIDAtMjI2LjUtOTMuNVQxNjAtNDgwcTAtMTMzIDkzLjUtMjI2LjVUNDgwLTgwMHE4NSAwIDE0OSAzNC41VDc0MC02NzF2LTEyOWg2MHYyNTRINTQ2di02MGgxNjhxLTM4LTYwLTk3LTk3dC0xMzctMzdxLTEwOSAwLTE4NC41IDc1LjVUMjIwLTQ4MHEwIDEwOSA3NS41IDE4NC41VDQ4MC0yMjBxODMgMCAxNTItNDcuNVQ3MjgtMzkzaDYycS0yOSAxMDUtMTE1IDE2OXQtMTk1IDY0WiIvPjwvc3ZnPg==</v>
+      </c>
+      <c r="F26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>B1-C2-T1</v>
+      </c>
+      <c r="B27" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics/accelerated-masters-history-or-cultural-studies</v>
+      </c>
+      <c r="C27" t="str">
+        <v>https://secure.gravatar.com/avatar/8fa90a9f22e056e212f0160ca5c3296557c65c81c155924e1fbafa5fab7dce7a?s=26&amp;d=mm&amp;r=g</v>
+      </c>
+      <c r="D27" t="str">
+        <v>image</v>
+      </c>
+      <c r="E27" t="str">
+        <v>https://secure.gravatar.com/avatar/8fa90a9f22e056e212f0160ca5c3296557c65c81c155924e1fbafa5fab7dce7a?s=26&amp;d=mm&amp;r=g</v>
+      </c>
+      <c r="F27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>B1-C2-T1</v>
+      </c>
+      <c r="B28" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics/accelerated-masters-history-or-cultural-studies</v>
+      </c>
+      <c r="C28" t="str">
+        <v>data:image/svg+xml;base64,PHN2ZyB3aWR0aD0iMSIgaGVpZ2h0PSIxIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciPjwvc3ZnPg==</v>
+      </c>
+      <c r="D28" t="str">
+        <v>image</v>
+      </c>
+      <c r="E28" t="str">
+        <v>data:image/svg+xml;base64,PHN2ZyB3aWR0aD0iMSIgaGVpZ2h0PSIxIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciPjwvc3ZnPg==</v>
+      </c>
+      <c r="F28">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>B1-C2-T1</v>
+      </c>
+      <c r="B29" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics/accelerated-masters-history-or-cultural-studies</v>
+      </c>
+      <c r="C29" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2025/10/geneseo-logo.svg</v>
+      </c>
+      <c r="D29" t="str">
+        <v>image</v>
+      </c>
+      <c r="E29" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2025/10/geneseo-logo.svg</v>
+      </c>
+      <c r="F29">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>B1-C2-T1</v>
+      </c>
+      <c r="B30" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics/accelerated-masters-history-or-cultural-studies</v>
+      </c>
+      <c r="C30" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/09/geneseo-logo.svg</v>
+      </c>
+      <c r="D30" t="str">
+        <v>image</v>
+      </c>
+      <c r="E30" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/09/geneseo-logo.svg</v>
+      </c>
+      <c r="F30">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F30"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/test-artifacts/media-reports/validated-media.xlsx
+++ b/test-artifacts/media-reports/validated-media.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,10 +424,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>B1-C1-T3</v>
+        <v>B1-C2-T3</v>
       </c>
       <c r="B2" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics/early-acceptance-dental-andor-osteopathic-medicine-programs</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics</v>
       </c>
       <c r="C2" t="str">
         <v>data:image/svg+xml;base64,PHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIGhlaWdodD0iMjRweCIgdmlld0JveD0iMCAtOTYwIDk2MCA5NjAiIHdpZHRoPSIyNHB4IiBmaWxsPSIjNWY2MzY4Ij48cGF0aCBkPSJNNDgwLTE2MHEtMTMzIDAtMjI2LjUtOTMuNVQxNjAtNDgwcTAtMTMzIDkzLjUtMjI2LjVUNDgwLTgwMHE4NSAwIDE0OSAzNC41VDc0MC02NzF2LTEyOWg2MHYyNTRINTQ2di02MGgxNjhxLTM4LTYwLTk3LTk3dC0xMzctMzdxLTEwOSAwLTE4NC41IDc1LjVUMjIwLTQ4MHEwIDEwOSA3NS41IDE4NC41VDQ4MC0yMjBxODMgMCAxNTItNDcuNVQ3MjgtMzkzaDYycS0yOSAxMDUtMTE1IDE2OXQtMTk1IDY0WiIvPjwvc3ZnPg==</v>
@@ -444,10 +444,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>B1-C1-T3</v>
+        <v>B1-C2-T3</v>
       </c>
       <c r="B3" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics/early-acceptance-dental-andor-osteopathic-medicine-programs</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics</v>
       </c>
       <c r="C3" t="str">
         <v>https://secure.gravatar.com/avatar/8fa90a9f22e056e212f0160ca5c3296557c65c81c155924e1fbafa5fab7dce7a?s=26&amp;d=mm&amp;r=g</v>
@@ -464,10 +464,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>B1-C1-T3</v>
+        <v>B1-C2-T3</v>
       </c>
       <c r="B4" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics/early-acceptance-dental-andor-osteopathic-medicine-programs</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics</v>
       </c>
       <c r="C4" t="str">
         <v>data:image/svg+xml;base64,PHN2ZyB3aWR0aD0iMSIgaGVpZ2h0PSIxIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciPjwvc3ZnPg==</v>
@@ -484,10 +484,10 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>B1-C1-T3</v>
+        <v>B1-C2-T3</v>
       </c>
       <c r="B5" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics/early-acceptance-dental-andor-osteopathic-medicine-programs</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics</v>
       </c>
       <c r="C5" t="str">
         <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2025/10/geneseo-logo.svg</v>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>B1-C1-T3</v>
+        <v>B1-C2-T3</v>
       </c>
       <c r="B6" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics/early-acceptance-dental-andor-osteopathic-medicine-programs</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics</v>
       </c>
       <c r="C6" t="str">
         <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/09/geneseo-logo.svg</v>
@@ -527,7 +527,7 @@
         <v>B1-C2-T2</v>
       </c>
       <c r="B7" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/aac/forms-and-documents</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics/medieval-studies-minor/</v>
       </c>
       <c r="C7" t="str">
         <v>data:image/svg+xml;base64,PHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIGhlaWdodD0iMjRweCIgdmlld0JveD0iMCAtOTYwIDk2MCA5NjAiIHdpZHRoPSIyNHB4IiBmaWxsPSIjNWY2MzY4Ij48cGF0aCBkPSJNNDgwLTE2MHEtMTMzIDAtMjI2LjUtOTMuNVQxNjAtNDgwcTAtMTMzIDkzLjUtMjI2LjVUNDgwLTgwMHE4NSAwIDE0OSAzNC41VDc0MC02NzF2LTEyOWg2MHYyNTRINTQ2di02MGgxNjhxLTM4LTYwLTk3LTk3dC0xMzctMzdxLTEwOSAwLTE4NC41IDc1LjVUMjIwLTQ4MHEwIDEwOSA3NS41IDE4NC41VDQ4MC0yMjBxODMgMCAxNTItNDcuNVQ3MjgtMzkzaDYycS0yOSAxMDUtMTE1IDE2OXQtMTk1IDY0WiIvPjwvc3ZnPg==</v>
@@ -547,7 +547,7 @@
         <v>B1-C2-T2</v>
       </c>
       <c r="B8" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/aac/forms-and-documents</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics/medieval-studies-minor/</v>
       </c>
       <c r="C8" t="str">
         <v>https://secure.gravatar.com/avatar/8fa90a9f22e056e212f0160ca5c3296557c65c81c155924e1fbafa5fab7dce7a?s=26&amp;d=mm&amp;r=g</v>
@@ -567,7 +567,7 @@
         <v>B1-C2-T2</v>
       </c>
       <c r="B9" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/aac/forms-and-documents</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics/medieval-studies-minor/</v>
       </c>
       <c r="C9" t="str">
         <v>data:image/svg+xml;base64,PHN2ZyB3aWR0aD0iMSIgaGVpZ2h0PSIxIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciPjwvc3ZnPg==</v>
@@ -587,7 +587,7 @@
         <v>B1-C2-T2</v>
       </c>
       <c r="B10" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/aac/forms-and-documents</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics/medieval-studies-minor/</v>
       </c>
       <c r="C10" t="str">
         <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2025/10/geneseo-logo.svg</v>
@@ -607,16 +607,16 @@
         <v>B1-C2-T2</v>
       </c>
       <c r="B11" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/aac/forms-and-documents</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics/medieval-studies-minor/</v>
       </c>
       <c r="C11" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2016/09/AAC-Logo-2017-1-2.jpg</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2020/11/mappa-mundi-public-domain.jpg</v>
       </c>
       <c r="D11" t="str">
         <v>image</v>
       </c>
       <c r="E11" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2016/09/AAC-Logo-2017-1-2.jpg</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2020/11/mappa-mundi-public-domain.jpg</v>
       </c>
       <c r="F11">
         <v>403</v>
@@ -627,384 +627,24 @@
         <v>B1-C2-T2</v>
       </c>
       <c r="B12" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/aac/forms-and-documents</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics/medieval-studies-minor/</v>
       </c>
       <c r="C12" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2017/09/SALogo.jpg</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/09/geneseo-logo.svg</v>
       </c>
       <c r="D12" t="str">
         <v>image</v>
       </c>
       <c r="E12" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2017/09/SALogo.jpg</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/09/geneseo-logo.svg</v>
       </c>
       <c r="F12">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>B1-C2-T2</v>
-      </c>
-      <c r="B13" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/aac/forms-and-documents</v>
-      </c>
-      <c r="C13" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/09/geneseo-logo.svg</v>
-      </c>
-      <c r="D13" t="str">
-        <v>image</v>
-      </c>
-      <c r="E13" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/09/geneseo-logo.svg</v>
-      </c>
-      <c r="F13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>B1-C2-T2</v>
-      </c>
-      <c r="B14" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/aac/forms-and-documents</v>
-      </c>
-      <c r="C14" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2016/09/AAC-by-laws-2016.docx</v>
-      </c>
-      <c r="D14" t="str">
-        <v>docx</v>
-      </c>
-      <c r="E14" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2016/09/AAC-by-laws-2016.docx</v>
-      </c>
-      <c r="F14">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>B1-C2-T2</v>
-      </c>
-      <c r="B15" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/aac/forms-and-documents</v>
-      </c>
-      <c r="C15" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/sites/default/files/users/1120/Continuing%20Recognition%20Form.pdf</v>
-      </c>
-      <c r="D15" t="str">
-        <v>pdf</v>
-      </c>
-      <c r="E15" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/sites/default/files/users/1120/Continuing%20Recognition%20Form.pdf</v>
-      </c>
-      <c r="F15">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>B1-C2-T2</v>
-      </c>
-      <c r="B16" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/aac/forms-and-documents</v>
-      </c>
-      <c r="C16" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2016/09/AAC_ConferenceREQUEST-Form.pdf.docx</v>
-      </c>
-      <c r="D16" t="str">
-        <v>docx</v>
-      </c>
-      <c r="E16" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2016/09/AAC_ConferenceREQUEST-Form.pdf.docx</v>
-      </c>
-      <c r="F16">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>B1-C2-T2</v>
-      </c>
-      <c r="B17" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/aac/forms-and-documents</v>
-      </c>
-      <c r="C17" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2016/09/AAC_SocialAcademicFunctionRequestForm-1.docx</v>
-      </c>
-      <c r="D17" t="str">
-        <v>docx</v>
-      </c>
-      <c r="E17" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2016/09/AAC_SocialAcademicFunctionRequestForm-1.docx</v>
-      </c>
-      <c r="F17">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>B1-C2-T2</v>
-      </c>
-      <c r="B18" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/aac/forms-and-documents</v>
-      </c>
-      <c r="C18" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2016/09/AAC_Off-CampusTrip-Form.docx</v>
-      </c>
-      <c r="D18" t="str">
-        <v>docx</v>
-      </c>
-      <c r="E18" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2016/09/AAC_Off-CampusTrip-Form.docx</v>
-      </c>
-      <c r="F18">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>B1-C2-T2</v>
-      </c>
-      <c r="B19" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/aac/forms-and-documents</v>
-      </c>
-      <c r="C19" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2016/09/AAC_PeerAdvisementProgram.docx</v>
-      </c>
-      <c r="D19" t="str">
-        <v>docx</v>
-      </c>
-      <c r="E19" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2016/09/AAC_PeerAdvisementProgram.docx</v>
-      </c>
-      <c r="F19">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>B1-C2-T2</v>
-      </c>
-      <c r="B20" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/aac/forms-and-documents</v>
-      </c>
-      <c r="C20" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2016/09/AAC_RemovalofSuspendedFinancialStandingReading.docx</v>
-      </c>
-      <c r="D20" t="str">
-        <v>docx</v>
-      </c>
-      <c r="E20" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2016/09/AAC_RemovalofSuspendedFinancialStandingReading.docx</v>
-      </c>
-      <c r="F20">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>B1-C2-T3</v>
-      </c>
-      <c r="B21" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler</v>
-      </c>
-      <c r="C21" t="str">
-        <v>data:image/svg+xml;base64,PHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIGhlaWdodD0iMjRweCIgdmlld0JveD0iMCAtOTYwIDk2MCA5NjAiIHdpZHRoPSIyNHB4IiBmaWxsPSIjNWY2MzY4Ij48cGF0aCBkPSJNNDgwLTE2MHEtMTMzIDAtMjI2LjUtOTMuNVQxNjAtNDgwcTAtMTMzIDkzLjUtMjI2LjVUNDgwLTgwMHE4NSAwIDE0OSAzNC41VDc0MC02NzF2LTEyOWg2MHYyNTRINTQ2di02MGgxNjhxLTM4LTYwLTk3LTk3dC0xMzctMzdxLTEwOSAwLTE4NC41IDc1LjVUMjIwLTQ4MHEwIDEwOSA3NS41IDE4NC41VDQ4MC0yMjBxODMgMCAxNTItNDcuNVQ3MjgtMzkzaDYycS0yOSAxMDUtMTE1IDE2OXQtMTk1IDY0WiIvPjwvc3ZnPg==</v>
-      </c>
-      <c r="D21" t="str">
-        <v>image</v>
-      </c>
-      <c r="E21" t="str">
-        <v>data:image/svg+xml;base64,PHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIGhlaWdodD0iMjRweCIgdmlld0JveD0iMCAtOTYwIDk2MCA5NjAiIHdpZHRoPSIyNHB4IiBmaWxsPSIjNWY2MzY4Ij48cGF0aCBkPSJNNDgwLTE2MHEtMTMzIDAtMjI2LjUtOTMuNVQxNjAtNDgwcTAtMTMzIDkzLjUtMjI2LjVUNDgwLTgwMHE4NSAwIDE0OSAzNC41VDc0MC02NzF2LTEyOWg2MHYyNTRINTQ2di02MGgxNjhxLTM4LTYwLTk3LTk3dC0xMzctMzdxLTEwOSAwLTE4NC41IDc1LjVUMjIwLTQ4MHEwIDEwOSA3NS41IDE4NC41VDQ4MC0yMjBxODMgMCAxNTItNDcuNVQ3MjgtMzkzaDYycS0yOSAxMDUtMTE1IDE2OXQtMTk1IDY0WiIvPjwvc3ZnPg==</v>
-      </c>
-      <c r="F21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>B1-C2-T3</v>
-      </c>
-      <c r="B22" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler</v>
-      </c>
-      <c r="C22" t="str">
-        <v>https://secure.gravatar.com/avatar/8fa90a9f22e056e212f0160ca5c3296557c65c81c155924e1fbafa5fab7dce7a?s=26&amp;d=mm&amp;r=g</v>
-      </c>
-      <c r="D22" t="str">
-        <v>image</v>
-      </c>
-      <c r="E22" t="str">
-        <v>https://secure.gravatar.com/avatar/8fa90a9f22e056e212f0160ca5c3296557c65c81c155924e1fbafa5fab7dce7a?s=26&amp;d=mm&amp;r=g</v>
-      </c>
-      <c r="F22">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>B1-C2-T3</v>
-      </c>
-      <c r="B23" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler</v>
-      </c>
-      <c r="C23" t="str">
-        <v>data:image/svg+xml;base64,PHN2ZyB3aWR0aD0iMSIgaGVpZ2h0PSIxIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciPjwvc3ZnPg==</v>
-      </c>
-      <c r="D23" t="str">
-        <v>image</v>
-      </c>
-      <c r="E23" t="str">
-        <v>data:image/svg+xml;base64,PHN2ZyB3aWR0aD0iMSIgaGVpZ2h0PSIxIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciPjwvc3ZnPg==</v>
-      </c>
-      <c r="F23">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>B1-C2-T3</v>
-      </c>
-      <c r="B24" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler</v>
-      </c>
-      <c r="C24" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2025/10/geneseo-logo.svg</v>
-      </c>
-      <c r="D24" t="str">
-        <v>image</v>
-      </c>
-      <c r="E24" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2025/10/geneseo-logo.svg</v>
-      </c>
-      <c r="F24">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>B1-C2-T3</v>
-      </c>
-      <c r="B25" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler</v>
-      </c>
-      <c r="C25" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/09/geneseo-logo.svg</v>
-      </c>
-      <c r="D25" t="str">
-        <v>image</v>
-      </c>
-      <c r="E25" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/09/geneseo-logo.svg</v>
-      </c>
-      <c r="F25">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>B1-C2-T1</v>
-      </c>
-      <c r="B26" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics/accelerated-masters-history-or-cultural-studies</v>
-      </c>
-      <c r="C26" t="str">
-        <v>data:image/svg+xml;base64,PHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIGhlaWdodD0iMjRweCIgdmlld0JveD0iMCAtOTYwIDk2MCA5NjAiIHdpZHRoPSIyNHB4IiBmaWxsPSIjNWY2MzY4Ij48cGF0aCBkPSJNNDgwLTE2MHEtMTMzIDAtMjI2LjUtOTMuNVQxNjAtNDgwcTAtMTMzIDkzLjUtMjI2LjVUNDgwLTgwMHE4NSAwIDE0OSAzNC41VDc0MC02NzF2LTEyOWg2MHYyNTRINTQ2di02MGgxNjhxLTM4LTYwLTk3LTk3dC0xMzctMzdxLTEwOSAwLTE4NC41IDc1LjVUMjIwLTQ4MHEwIDEwOSA3NS41IDE4NC41VDQ4MC0yMjBxODMgMCAxNTItNDcuNVQ3MjgtMzkzaDYycS0yOSAxMDUtMTE1IDE2OXQtMTk1IDY0WiIvPjwvc3ZnPg==</v>
-      </c>
-      <c r="D26" t="str">
-        <v>image</v>
-      </c>
-      <c r="E26" t="str">
-        <v>data:image/svg+xml;base64,PHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIGhlaWdodD0iMjRweCIgdmlld0JveD0iMCAtOTYwIDk2MCA5NjAiIHdpZHRoPSIyNHB4IiBmaWxsPSIjNWY2MzY4Ij48cGF0aCBkPSJNNDgwLTE2MHEtMTMzIDAtMjI2LjUtOTMuNVQxNjAtNDgwcTAtMTMzIDkzLjUtMjI2LjVUNDgwLTgwMHE4NSAwIDE0OSAzNC41VDc0MC02NzF2LTEyOWg2MHYyNTRINTQ2di02MGgxNjhxLTM4LTYwLTk3LTk3dC0xMzctMzdxLTEwOSAwLTE4NC41IDc1LjVUMjIwLTQ4MHEwIDEwOSA3NS41IDE4NC41VDQ4MC0yMjBxODMgMCAxNTItNDcuNVQ3MjgtMzkzaDYycS0yOSAxMDUtMTE1IDE2OXQtMTk1IDY0WiIvPjwvc3ZnPg==</v>
-      </c>
-      <c r="F26">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>B1-C2-T1</v>
-      </c>
-      <c r="B27" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics/accelerated-masters-history-or-cultural-studies</v>
-      </c>
-      <c r="C27" t="str">
-        <v>https://secure.gravatar.com/avatar/8fa90a9f22e056e212f0160ca5c3296557c65c81c155924e1fbafa5fab7dce7a?s=26&amp;d=mm&amp;r=g</v>
-      </c>
-      <c r="D27" t="str">
-        <v>image</v>
-      </c>
-      <c r="E27" t="str">
-        <v>https://secure.gravatar.com/avatar/8fa90a9f22e056e212f0160ca5c3296557c65c81c155924e1fbafa5fab7dce7a?s=26&amp;d=mm&amp;r=g</v>
-      </c>
-      <c r="F27">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>B1-C2-T1</v>
-      </c>
-      <c r="B28" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics/accelerated-masters-history-or-cultural-studies</v>
-      </c>
-      <c r="C28" t="str">
-        <v>data:image/svg+xml;base64,PHN2ZyB3aWR0aD0iMSIgaGVpZ2h0PSIxIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciPjwvc3ZnPg==</v>
-      </c>
-      <c r="D28" t="str">
-        <v>image</v>
-      </c>
-      <c r="E28" t="str">
-        <v>data:image/svg+xml;base64,PHN2ZyB3aWR0aD0iMSIgaGVpZ2h0PSIxIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciPjwvc3ZnPg==</v>
-      </c>
-      <c r="F28">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>B1-C2-T1</v>
-      </c>
-      <c r="B29" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics/accelerated-masters-history-or-cultural-studies</v>
-      </c>
-      <c r="C29" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2025/10/geneseo-logo.svg</v>
-      </c>
-      <c r="D29" t="str">
-        <v>image</v>
-      </c>
-      <c r="E29" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-content/uploads/2025/10/geneseo-logo.svg</v>
-      </c>
-      <c r="F29">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>B1-C2-T1</v>
-      </c>
-      <c r="B30" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics/accelerated-masters-history-or-cultural-studies</v>
-      </c>
-      <c r="C30" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/09/geneseo-logo.svg</v>
-      </c>
-      <c r="D30" t="str">
-        <v>image</v>
-      </c>
-      <c r="E30" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/09/geneseo-logo.svg</v>
-      </c>
-      <c r="F30">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F30"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F12"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/test-artifacts/media-reports/validated-media.xlsx
+++ b/test-artifacts/media-reports/validated-media.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,107 +427,47 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>3-2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B2" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/journals-and-reflections/</v>
+        <v>http://localhost/sunny/admissions/</v>
       </c>
       <c r="C2" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/journals-and-reflections/</v>
+        <v>http://localhost/sunny/admissions/</v>
       </c>
       <c r="D2" t="str">
         <v>ok</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>3-1</v>
+        <v>B1-W1</v>
       </c>
       <c r="B3" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/boiling-flasks-round-bottom/</v>
+        <v>http://localhost/sunny/academics/schools-and-departments/</v>
       </c>
       <c r="C3" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/boiling-flasks-round-bottom/</v>
+        <v>http://localhost/sunny/academics/schools-and-departments/</v>
       </c>
       <c r="D3" t="str">
         <v>ok</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>3-2</v>
-      </c>
-      <c r="B4" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/conh35clcl2-prep/</v>
-      </c>
-      <c r="C4" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/conh35clcl2-prep/</v>
-      </c>
-      <c r="D4" t="str">
-        <v>ok</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>3-1</v>
-      </c>
-      <c r="B5" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/academics</v>
-      </c>
-      <c r="C5" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/academics</v>
-      </c>
-      <c r="D5" t="str">
-        <v>ok</v>
-      </c>
-      <c r="E5">
-        <v>19</v>
-      </c>
-      <c r="F5">
         <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>3-1</v>
-      </c>
-      <c r="B6" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/mofs-part-3/</v>
-      </c>
-      <c r="C6" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/mofs-part-3/</v>
-      </c>
-      <c r="D6" t="str">
-        <v>ok</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/test-artifacts/media-reports/validated-media.xlsx
+++ b/test-artifacts/media-reports/validated-media.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,19 +427,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B2" t="str">
-        <v>http://localhost/sunny/admissions/</v>
-      </c>
-      <c r="C2" t="str">
-        <v>http://localhost/sunny/admissions/</v>
+        <v>https://www.geneseo.edu/admissions</v>
       </c>
       <c r="D2" t="str">
         <v>ok</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -450,24 +447,38 @@
         <v>B1-W1</v>
       </c>
       <c r="B3" t="str">
-        <v>http://localhost/sunny/academics/schools-and-departments/</v>
-      </c>
-      <c r="C3" t="str">
-        <v>http://localhost/sunny/academics/schools-and-departments/</v>
+        <v>https://www.geneseo.edu/academics/schools-and-departments</v>
       </c>
       <c r="D3" t="str">
         <v>ok</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>B1-W1</v>
+      </c>
+      <c r="B4" t="str">
+        <v>https://www.geneseo.edu/academics</v>
+      </c>
+      <c r="D4" t="str">
+        <v>ok</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/test-artifacts/media-reports/validated-media.xlsx
+++ b/test-artifacts/media-reports/validated-media.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,19 +427,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B2" t="str">
-        <v>https://www.geneseo.edu/admissions</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academics/</v>
+      </c>
+      <c r="C2" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academics/</v>
       </c>
       <c r="D2" t="str">
         <v>ok</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -447,38 +450,24 @@
         <v>B1-W1</v>
       </c>
       <c r="B3" t="str">
-        <v>https://www.geneseo.edu/academics/schools-and-departments</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/</v>
+      </c>
+      <c r="C3" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/</v>
       </c>
       <c r="D3" t="str">
         <v>ok</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>B1-W1</v>
-      </c>
-      <c r="B4" t="str">
-        <v>https://www.geneseo.edu/academics</v>
-      </c>
-      <c r="D4" t="str">
-        <v>ok</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
   </ignoredErrors>
 </worksheet>
 </file>